--- a/ISRaD_data_files/Katsuno_2010.xlsx
+++ b/ISRaD_data_files/Katsuno_2010.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfromm\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F426E69C-7B7F-4F12-9D5A-FA02CFB96A68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27380" windowHeight="13440" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27384" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="946">
   <si>
     <t>entry_name</t>
   </si>
@@ -2861,12 +2867,18 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>pro_usda_soil_order</t>
+  </si>
+  <si>
+    <t>Andisols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2968,7 +2980,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2980,12 +2992,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_layer" xfId="3"/>
+    <cellStyle name="Normal_layer" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3278,14 +3293,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3335,7 +3352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3382,7 +3399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3420,7 +3437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3454,7 +3471,7 @@
       <c r="K4" t="s">
         <v>52</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="5" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s">
@@ -3473,14 +3490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3503,7 +3520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3526,7 +3543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3543,7 +3560,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3560,7 +3577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3589,14 +3606,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3637,76 +3656,79 @@
         <v>87</v>
       </c>
       <c r="N1" t="s">
+        <v>944</v>
+      </c>
+      <c r="O1" t="s">
         <v>88</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>89</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>91</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>92</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>93</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>94</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>95</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>96</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>97</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>98</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>106</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>107</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>108</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>109</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3746,77 +3768,77 @@
       <c r="M2" t="s">
         <v>119</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>120</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>121</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>123</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>124</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>125</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>126</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>127</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>128</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>129</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>131</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>132</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>134</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>135</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>136</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>137</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>138</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>139</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>140</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3844,29 +3866,26 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>148</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>150</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>147</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>151</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>152</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>153</v>
-      </c>
-      <c r="V3" t="s">
-        <v>154</v>
       </c>
       <c r="W3" t="s">
         <v>154</v>
@@ -3875,43 +3894,46 @@
         <v>154</v>
       </c>
       <c r="Y3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z3" t="s">
         <v>155</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>156</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>157</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>158</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>159</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>160</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>151</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>161</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>162</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>163</v>
       </c>
       <c r="AI3" t="s">
         <v>163</v>
       </c>
       <c r="AJ3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3924,17 +3946,20 @@
       <c r="H4" t="s">
         <v>165</v>
       </c>
-      <c r="P4" t="s">
+      <c r="N4" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q4" t="s">
         <v>166</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>167</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3947,13 +3972,16 @@
       <c r="H5" t="s">
         <v>165</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q5" t="s">
         <v>166</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>170</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3969,14 +3997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +4117,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4199,7 +4227,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4291,16 +4319,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT15"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AU33" sqref="AU33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4596,7 +4624,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4892,7 +4920,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5131,7 +5159,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5172,7 +5200,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5213,7 +5241,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5254,7 +5282,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5295,7 +5323,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5336,7 +5364,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5377,7 +5405,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -5418,7 +5446,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5459,7 +5487,7 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -5500,7 +5528,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -5541,7 +5569,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -5582,7 +5610,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -5635,14 +5663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5728,7 +5756,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5811,7 +5839,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5870,16 +5898,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52">
+    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +6128,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6318,7 +6346,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6497,14 +6525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6596,7 +6624,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6679,7 +6707,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6738,14 +6766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>701</v>
       </c>
@@ -6879,7 +6907,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7013,7 +7041,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>747</v>
       </c>
@@ -7036,7 +7064,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>752</v>
       </c>
@@ -7170,7 +7198,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>785</v>
       </c>
@@ -7283,7 +7311,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>818</v>
       </c>
@@ -7384,7 +7412,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>844</v>
       </c>
@@ -7458,7 +7486,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>864</v>
       </c>
@@ -7526,7 +7554,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>881</v>
       </c>
@@ -7579,7 +7607,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>897</v>
       </c>
@@ -7611,7 +7639,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>907</v>
       </c>
@@ -7637,7 +7665,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>914</v>
       </c>
@@ -7654,7 +7682,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U13" t="s">
         <v>919</v>
       </c>
@@ -7668,7 +7696,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U14" t="s">
         <v>923</v>
       </c>
@@ -7679,7 +7707,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U15" t="s">
         <v>926</v>
       </c>
@@ -7690,7 +7718,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U16" t="s">
         <v>929</v>
       </c>
@@ -7701,7 +7729,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="17" spans="40:41">
+    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN17" t="s">
         <v>932</v>
       </c>
@@ -7709,7 +7737,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="18" spans="40:41">
+    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN18" t="s">
         <v>934</v>
       </c>
@@ -7717,7 +7745,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="19" spans="40:41">
+    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN19" t="s">
         <v>936</v>
       </c>
@@ -7725,7 +7753,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="20" spans="40:41">
+    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN20" t="s">
         <v>938</v>
       </c>
@@ -7733,7 +7761,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="21" spans="40:41">
+    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN21" t="s">
         <v>940</v>
       </c>
